--- a/Proyecto Nuevo/Datos/Variables.xlsx
+++ b/Proyecto Nuevo/Datos/Variables.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85ada847e686dc53/Documentos/GitHub/Proyecto-UTFSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85ada847e686dc53/Documentos/GitHub/Proyecto-DAP-UTFSM/Proyecto Nuevo/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA0E99EA-8065-4A03-A0F4-48DFCC6C6247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{EA0E99EA-8065-4A03-A0F4-48DFCC6C6247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1D6F154-757C-40EA-AA67-B2133290B114}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2370" windowWidth="33720" windowHeight="15345" xr2:uid="{4E2C052A-037B-4FD9-9037-5E74D0C0211A}"/>
+    <workbookView xWindow="9855" yWindow="3345" windowWidth="35535" windowHeight="15345" activeTab="5" xr2:uid="{4E2C052A-037B-4FD9-9037-5E74D0C0211A}"/>
   </bookViews>
   <sheets>
     <sheet name="IPEC" sheetId="1" r:id="rId1"/>
-    <sheet name="IMCE" sheetId="4" r:id="rId2"/>
-    <sheet name="IPC" sheetId="2" r:id="rId3"/>
-    <sheet name="TPM" sheetId="3" r:id="rId4"/>
-    <sheet name="PIB" sheetId="5" r:id="rId5"/>
+    <sheet name="IMACEC" sheetId="6" r:id="rId2"/>
+    <sheet name="IMCE" sheetId="4" r:id="rId3"/>
+    <sheet name="IPC" sheetId="2" r:id="rId4"/>
+    <sheet name="TPM" sheetId="3" r:id="rId5"/>
+    <sheet name="PIB" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPEC!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TPM!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TPM!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="251">
   <si>
     <t>fecha</t>
   </si>
@@ -789,6 +790,12 @@
   </si>
   <si>
     <t>1.PIB volumen a precios del año anterior encadenado (desestacionalizado)</t>
+  </si>
+  <si>
+    <t>1.Imacec</t>
+  </si>
+  <si>
+    <t>(miles de millones de pesos)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +806,7 @@
     <numFmt numFmtId="164" formatCode="mmm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +837,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -910,11 +929,12 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -937,10 +957,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6FBB2FFA-D976-4277-BC68-4C7441AD116C}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{5E1D31D0-063D-4A53-98EE-B70481826899}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,6 +982,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1254,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EE795B-786C-42FD-8588-6774880A0A11}">
   <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3163,6 +3196,1965 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7AC9B4-B396-4C98-82A0-76D3796A5777}">
+  <dimension ref="A1:B243"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>37987</v>
+      </c>
+      <c r="B2" s="11">
+        <v>56.955084196656998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>38018</v>
+      </c>
+      <c r="B3" s="11">
+        <v>54.856650202714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>38047</v>
+      </c>
+      <c r="B4" s="11">
+        <v>61.862995629041997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>38078</v>
+      </c>
+      <c r="B5" s="11">
+        <v>60.637087338802999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>38108</v>
+      </c>
+      <c r="B6" s="11">
+        <v>60.085063570149003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>38139</v>
+      </c>
+      <c r="B7" s="11">
+        <v>58.541869244342998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>38169</v>
+      </c>
+      <c r="B8" s="11">
+        <v>57.991105850779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>38200</v>
+      </c>
+      <c r="B9" s="11">
+        <v>59.147606140564001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>38231</v>
+      </c>
+      <c r="B10" s="11">
+        <v>57.833755537243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>38261</v>
+      </c>
+      <c r="B11" s="11">
+        <v>62.943605435076996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>38292</v>
+      </c>
+      <c r="B12" s="11">
+        <v>63.373358052550998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>38322</v>
+      </c>
+      <c r="B13" s="11">
+        <v>66.085423779698999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>38353</v>
+      </c>
+      <c r="B14" s="11">
+        <v>60.997060204058002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>38384</v>
+      </c>
+      <c r="B15" s="11">
+        <v>58.268919701987997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>38412</v>
+      </c>
+      <c r="B16" s="11">
+        <v>65.160412346314999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>38443</v>
+      </c>
+      <c r="B17" s="11">
+        <v>64.375450961379997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>38473</v>
+      </c>
+      <c r="B18" s="11">
+        <v>63.300283169448001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>38504</v>
+      </c>
+      <c r="B19" s="11">
+        <v>62.240974281920998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>38534</v>
+      </c>
+      <c r="B20" s="11">
+        <v>60.627780191040003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>38565</v>
+      </c>
+      <c r="B21" s="11">
+        <v>63.155196419261998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>38596</v>
+      </c>
+      <c r="B22" s="11">
+        <v>61.204357372753002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>38626</v>
+      </c>
+      <c r="B23" s="11">
+        <v>65.630502708452994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>38657</v>
+      </c>
+      <c r="B24" s="11">
+        <v>66.99599793774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>38687</v>
+      </c>
+      <c r="B25" s="11">
+        <v>70.401704127295005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B26" s="11">
+        <v>64.269602795468998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B27" s="11">
+        <v>62.488110171122997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B28" s="11">
+        <v>68.647650118138003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B29" s="11">
+        <v>67.635320987463999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B30" s="11">
+        <v>67.864066098357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B31" s="11">
+        <v>66.446413492687995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B32" s="11">
+        <v>64.332903078672999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B33" s="11">
+        <v>65.948273488541005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B34" s="11">
+        <v>65.113551695834005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B35" s="11">
+        <v>70.480971763765993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B36" s="11">
+        <v>70.667382582296995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>39052</v>
+      </c>
+      <c r="B37" s="11">
+        <v>74.587020892956005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B38" s="11">
+        <v>67.845191279380998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B39" s="11">
+        <v>65.116565114977007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B40" s="11">
+        <v>73.244219190878994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B41" s="11">
+        <v>71.488095617640994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B42" s="11">
+        <v>71.440798702796002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B43" s="11">
+        <v>70.072986345225999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B44" s="11">
+        <v>66.805588387192003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B45" s="11">
+        <v>69.297823047216994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B46" s="11">
+        <v>68.798380919880998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B47" s="11">
+        <v>73.415997744712001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B48" s="11">
+        <v>74.134087787802002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>39417</v>
+      </c>
+      <c r="B49" s="11">
+        <v>78.605712387656993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B50" s="11">
+        <v>72.021359084329006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B51" s="11">
+        <v>69.921220421092997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B52" s="11">
+        <v>76.844728447912999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B53" s="11">
+        <v>75.053531974983997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B54" s="11">
+        <v>74.871055326447006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B55" s="11">
+        <v>73.741646042606007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B56" s="11">
+        <v>71.175614376829003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B57" s="11">
+        <v>70.786547912995999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B58" s="11">
+        <v>70.220106541470997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B59" s="11">
+        <v>75.251925378091997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B60" s="11">
+        <v>74.105553698676999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>39783</v>
+      </c>
+      <c r="B61" s="11">
+        <v>78.492054985693002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B62" s="11">
+        <v>71.012969470127004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B63" s="11">
+        <v>67.353174720829998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B64" s="11">
+        <v>75.478012424369993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B65" s="11">
+        <v>73.301019024222995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B66" s="11">
+        <v>72.779489795380996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B67" s="11">
+        <v>71.269542072999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B68" s="11">
+        <v>68.749135142567994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B69" s="11">
+        <v>71.488672153270997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B70" s="11">
+        <v>70.422142442318005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B71" s="11">
+        <v>75.065190753094001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B72" s="11">
+        <v>76.253120201957998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>40148</v>
+      </c>
+      <c r="B73" s="11">
+        <v>79.446361235563998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B74" s="11">
+        <v>72.478647028525998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B75" s="11">
+        <v>69.784255933159002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B76" s="11">
+        <v>75.714061392483003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B77" s="11">
+        <v>77.836153679345998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B78" s="11">
+        <v>77.265079570531995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B79" s="11">
+        <v>76.186444175657002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B80" s="11">
+        <v>74.112635101110996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B81" s="11">
+        <v>77.296542693898999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B82" s="11">
+        <v>75.050155265219999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B83" s="11">
+        <v>80.061679388225002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B84" s="11">
+        <v>82.742487762094996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>40513</v>
+      </c>
+      <c r="B85" s="11">
+        <v>85.153296099551994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="10">
+        <v>40544</v>
+      </c>
+      <c r="B86" s="11">
+        <v>78.010367477195004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="10">
+        <v>40575</v>
+      </c>
+      <c r="B87" s="11">
+        <v>74.279064630842996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="10">
+        <v>40603</v>
+      </c>
+      <c r="B88" s="11">
+        <v>84.796447395721003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="10">
+        <v>40634</v>
+      </c>
+      <c r="B89" s="11">
+        <v>82.417454723301006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>40664</v>
+      </c>
+      <c r="B90" s="11">
+        <v>82.970070411294998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>40695</v>
+      </c>
+      <c r="B91" s="11">
+        <v>80.371445138843001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>40725</v>
+      </c>
+      <c r="B92" s="11">
+        <v>77.225680203991999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>40756</v>
+      </c>
+      <c r="B93" s="11">
+        <v>80.761006540370005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>40787</v>
+      </c>
+      <c r="B94" s="11">
+        <v>78.670318350873998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>40817</v>
+      </c>
+      <c r="B95" s="11">
+        <v>84.178775752689006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>40848</v>
+      </c>
+      <c r="B96" s="11">
+        <v>86.446293627724003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>40878</v>
+      </c>
+      <c r="B97" s="11">
+        <v>91.043493166838999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>40909</v>
+      </c>
+      <c r="B98" s="11">
+        <v>82.48850775212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>40940</v>
+      </c>
+      <c r="B99" s="11">
+        <v>79.583912810662994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="10">
+        <v>40969</v>
+      </c>
+      <c r="B100" s="11">
+        <v>89.288491287333997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>41000</v>
+      </c>
+      <c r="B101" s="11">
+        <v>87.623528867104994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="10">
+        <v>41030</v>
+      </c>
+      <c r="B102" s="11">
+        <v>88.038617478329996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="10">
+        <v>41061</v>
+      </c>
+      <c r="B103" s="11">
+        <v>86.063196111227001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="10">
+        <v>41091</v>
+      </c>
+      <c r="B104" s="11">
+        <v>82.963262681021007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>41122</v>
+      </c>
+      <c r="B105" s="11">
+        <v>86.650826381849996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="10">
+        <v>41153</v>
+      </c>
+      <c r="B106" s="11">
+        <v>82.730095137320006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="10">
+        <v>41183</v>
+      </c>
+      <c r="B107" s="11">
+        <v>89.847446247651007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="10">
+        <v>41214</v>
+      </c>
+      <c r="B108" s="11">
+        <v>91.596476733005005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="10">
+        <v>41244</v>
+      </c>
+      <c r="B109" s="11">
+        <v>94.690431285771993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="10">
+        <v>41275</v>
+      </c>
+      <c r="B110" s="11">
+        <v>86.555400054821007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="10">
+        <v>41306</v>
+      </c>
+      <c r="B111" s="11">
+        <v>82.225784319824001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>41334</v>
+      </c>
+      <c r="B112" s="11">
+        <v>92.977186497817002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="10">
+        <v>41365</v>
+      </c>
+      <c r="B113" s="11">
+        <v>91.412939598931004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="10">
+        <v>41395</v>
+      </c>
+      <c r="B114" s="11">
+        <v>90.696061624316002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="10">
+        <v>41426</v>
+      </c>
+      <c r="B115" s="11">
+        <v>88.606092770922999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="10">
+        <v>41456</v>
+      </c>
+      <c r="B116" s="11">
+        <v>85.534995966381004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="10">
+        <v>41487</v>
+      </c>
+      <c r="B117" s="11">
+        <v>88.926431888235996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="10">
+        <v>41518</v>
+      </c>
+      <c r="B118" s="11">
+        <v>85.273741862194001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>41548</v>
+      </c>
+      <c r="B119" s="11">
+        <v>92.340598124992994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="10">
+        <v>41579</v>
+      </c>
+      <c r="B120" s="11">
+        <v>94.497922969114995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="10">
+        <v>41609</v>
+      </c>
+      <c r="B121" s="11">
+        <v>96.977894164608998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="10">
+        <v>41640</v>
+      </c>
+      <c r="B122" s="11">
+        <v>88.060444064101006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="10">
+        <v>41671</v>
+      </c>
+      <c r="B123" s="11">
+        <v>84.785718764327996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="10">
+        <v>41699</v>
+      </c>
+      <c r="B124" s="11">
+        <v>95.312156519953007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="10">
+        <v>41730</v>
+      </c>
+      <c r="B125" s="11">
+        <v>92.851935952934994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="10">
+        <v>41760</v>
+      </c>
+      <c r="B126" s="11">
+        <v>92.522357369478001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="10">
+        <v>41791</v>
+      </c>
+      <c r="B127" s="11">
+        <v>89.941472707136001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="10">
+        <v>41821</v>
+      </c>
+      <c r="B128" s="11">
+        <v>86.145864917023005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="10">
+        <v>41852</v>
+      </c>
+      <c r="B129" s="11">
+        <v>89.571244254215003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="10">
+        <v>41883</v>
+      </c>
+      <c r="B130" s="11">
+        <v>87.411704747187997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="10">
+        <v>41913</v>
+      </c>
+      <c r="B131" s="11">
+        <v>94.004500903655995</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="10">
+        <v>41944</v>
+      </c>
+      <c r="B132" s="11">
+        <v>95.252883535121001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="10">
+        <v>41974</v>
+      </c>
+      <c r="B133" s="11">
+        <v>99.454123475263998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="10">
+        <v>42005</v>
+      </c>
+      <c r="B134" s="11">
+        <v>90.453462762136994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="10">
+        <v>42036</v>
+      </c>
+      <c r="B135" s="11">
+        <v>86.973394824699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="10">
+        <v>42064</v>
+      </c>
+      <c r="B136" s="11">
+        <v>97.414272703110996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="10">
+        <v>42095</v>
+      </c>
+      <c r="B137" s="11">
+        <v>95.112128469227002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="10">
+        <v>42125</v>
+      </c>
+      <c r="B138" s="11">
+        <v>93.699654802915006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="10">
+        <v>42156</v>
+      </c>
+      <c r="B139" s="11">
+        <v>92.143030643087002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="10">
+        <v>42186</v>
+      </c>
+      <c r="B140" s="11">
+        <v>88.302693802101004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="10">
+        <v>42217</v>
+      </c>
+      <c r="B141" s="11">
+        <v>90.792889037761</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="10">
+        <v>42248</v>
+      </c>
+      <c r="B142" s="11">
+        <v>90.002282017797995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="10">
+        <v>42278</v>
+      </c>
+      <c r="B143" s="11">
+        <v>95.120533391856995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="10">
+        <v>42309</v>
+      </c>
+      <c r="B144" s="11">
+        <v>97.432996955006999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>42339</v>
+      </c>
+      <c r="B145" s="11">
+        <v>101.43760403602001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <v>42370</v>
+      </c>
+      <c r="B146" s="11">
+        <v>92.118155591936002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>42401</v>
+      </c>
+      <c r="B147" s="11">
+        <v>90.720015725422002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>42430</v>
+      </c>
+      <c r="B148" s="11">
+        <v>100.11904132877</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>42461</v>
+      </c>
+      <c r="B149" s="11">
+        <v>95.721492513298003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="10">
+        <v>42491</v>
+      </c>
+      <c r="B150" s="11">
+        <v>95.665589761202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="10">
+        <v>42522</v>
+      </c>
+      <c r="B151" s="11">
+        <v>93.115200712941999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>42552</v>
+      </c>
+      <c r="B152" s="11">
+        <v>89.194778181052001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>42583</v>
+      </c>
+      <c r="B153" s="11">
+        <v>93.752770303538</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>42614</v>
+      </c>
+      <c r="B154" s="11">
+        <v>91.517521362080004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>42644</v>
+      </c>
+      <c r="B155" s="11">
+        <v>94.798306314344998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>42675</v>
+      </c>
+      <c r="B156" s="11">
+        <v>98.713672128382001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>42705</v>
+      </c>
+      <c r="B157" s="11">
+        <v>103.06288613861</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B158" s="11">
+        <v>92.487585800535996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>42767</v>
+      </c>
+      <c r="B159" s="11">
+        <v>89.066911643379996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>42795</v>
+      </c>
+      <c r="B160" s="11">
+        <v>100.35307404533999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>42826</v>
+      </c>
+      <c r="B161" s="11">
+        <v>95.345690542263995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>42856</v>
+      </c>
+      <c r="B162" s="11">
+        <v>96.953322592750993</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>42887</v>
+      </c>
+      <c r="B163" s="11">
+        <v>94.127715176728998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>42917</v>
+      </c>
+      <c r="B164" s="11">
+        <v>90.907381457548993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
+        <v>42948</v>
+      </c>
+      <c r="B165" s="11">
+        <v>95.779130326951005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>42979</v>
+      </c>
+      <c r="B166" s="11">
+        <v>92.872063668829</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="10">
+        <v>43009</v>
+      </c>
+      <c r="B167" s="11">
+        <v>98.048142306458004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="10">
+        <v>43040</v>
+      </c>
+      <c r="B168" s="11">
+        <v>102.24585977453</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="10">
+        <v>43070</v>
+      </c>
+      <c r="B169" s="11">
+        <v>105.76990681528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="10">
+        <v>43101</v>
+      </c>
+      <c r="B170" s="11">
+        <v>96.617677027824001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="10">
+        <v>43132</v>
+      </c>
+      <c r="B171" s="11">
+        <v>92.724850424920007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="10">
+        <v>43160</v>
+      </c>
+      <c r="B172" s="11">
+        <v>105.29301352216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="10">
+        <v>43191</v>
+      </c>
+      <c r="B173" s="11">
+        <v>101.94477936451</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="10">
+        <v>43221</v>
+      </c>
+      <c r="B174" s="11">
+        <v>101.74453565763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="10">
+        <v>43252</v>
+      </c>
+      <c r="B175" s="11">
+        <v>98.520778860242999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>43282</v>
+      </c>
+      <c r="B176" s="11">
+        <v>93.850899772746999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>43313</v>
+      </c>
+      <c r="B177" s="11">
+        <v>98.155723941130006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="10">
+        <v>43344</v>
+      </c>
+      <c r="B178" s="11">
+        <v>94.336199618169999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="10">
+        <v>43374</v>
+      </c>
+      <c r="B179" s="11">
+        <v>102.24211305194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="10">
+        <v>43405</v>
+      </c>
+      <c r="B180" s="11">
+        <v>105.62254442354001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="10">
+        <v>43435</v>
+      </c>
+      <c r="B181" s="11">
+        <v>108.94688433515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="10">
+        <v>43466</v>
+      </c>
+      <c r="B182" s="11">
+        <v>98.530672263949995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="10">
+        <v>43497</v>
+      </c>
+      <c r="B183" s="11">
+        <v>93.213286243298995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>43525</v>
+      </c>
+      <c r="B184" s="11">
+        <v>106.42584328097</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="10">
+        <v>43556</v>
+      </c>
+      <c r="B185" s="11">
+        <v>103.49013120118001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="10">
+        <v>43586</v>
+      </c>
+      <c r="B186" s="11">
+        <v>103.20891402847001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="10">
+        <v>43617</v>
+      </c>
+      <c r="B187" s="11">
+        <v>99.125098034309005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="10">
+        <v>43647</v>
+      </c>
+      <c r="B188" s="11">
+        <v>96.527595848572005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="10">
+        <v>43678</v>
+      </c>
+      <c r="B189" s="11">
+        <v>101.65378827625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="10">
+        <v>43709</v>
+      </c>
+      <c r="B190" s="11">
+        <v>97.271234422470002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B191" s="11">
+        <v>97.841267235076998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="10">
+        <v>43770</v>
+      </c>
+      <c r="B192" s="11">
+        <v>100.34947851688</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="10">
+        <v>43800</v>
+      </c>
+      <c r="B193" s="11">
+        <v>109.97510105465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="10">
+        <v>43831</v>
+      </c>
+      <c r="B194" s="11">
+        <v>99.670072560315006</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="10">
+        <v>43862</v>
+      </c>
+      <c r="B195" s="11">
+        <v>95.859492637255002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="10">
+        <v>43891</v>
+      </c>
+      <c r="B196" s="11">
+        <v>101.94322136488</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="10">
+        <v>43922</v>
+      </c>
+      <c r="B197" s="11">
+        <v>88.190603750587997</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="10">
+        <v>43952</v>
+      </c>
+      <c r="B198" s="11">
+        <v>86.785484800088994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B199" s="11">
+        <v>85.118985541336002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="10">
+        <v>44013</v>
+      </c>
+      <c r="B200" s="11">
+        <v>85.049279170728994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="10">
+        <v>44044</v>
+      </c>
+      <c r="B201" s="11">
+        <v>90.359905962661003</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B202" s="11">
+        <v>92.050347346612</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="10">
+        <v>44105</v>
+      </c>
+      <c r="B203" s="11">
+        <v>96.443140815513999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="10">
+        <v>44136</v>
+      </c>
+      <c r="B204" s="11">
+        <v>101.31548725722</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="10">
+        <v>44166</v>
+      </c>
+      <c r="B205" s="11">
+        <v>110.63702517799</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="10">
+        <v>44197</v>
+      </c>
+      <c r="B206" s="11">
+        <v>96.352095299203</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="10">
+        <v>44228</v>
+      </c>
+      <c r="B207" s="11">
+        <v>93.924301836460003</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="10">
+        <v>44256</v>
+      </c>
+      <c r="B208" s="11">
+        <v>108.78409992336</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>44287</v>
+      </c>
+      <c r="B209" s="11">
+        <v>101.58978905497</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>44317</v>
+      </c>
+      <c r="B210" s="11">
+        <v>103.6008425868</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="10">
+        <v>44348</v>
+      </c>
+      <c r="B211" s="11">
+        <v>102.50642641493</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="10">
+        <v>44378</v>
+      </c>
+      <c r="B212" s="11">
+        <v>99.776708652463995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
+        <v>44409</v>
+      </c>
+      <c r="B213" s="11">
+        <v>106.52694171307</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>44440</v>
+      </c>
+      <c r="B214" s="11">
+        <v>104.61035439801999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="10">
+        <v>44470</v>
+      </c>
+      <c r="B215" s="11">
+        <v>109.1118967439</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="10">
+        <v>44501</v>
+      </c>
+      <c r="B216" s="11">
+        <v>114.88878024501</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B217" s="11">
+        <v>120.21249100644999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B218" s="11">
+        <v>103.66272040787</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="10">
+        <v>44593</v>
+      </c>
+      <c r="B219" s="11">
+        <v>99.052369487980002</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="10">
+        <v>44621</v>
+      </c>
+      <c r="B220" s="11">
+        <v>115.19523824047</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="10">
+        <v>44652</v>
+      </c>
+      <c r="B221" s="11">
+        <v>106.96218883932001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="10">
+        <v>44682</v>
+      </c>
+      <c r="B222" s="11">
+        <v>108.86708613665</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="10">
+        <v>44713</v>
+      </c>
+      <c r="B223" s="11">
+        <v>105.39457418031</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="10">
+        <v>44743</v>
+      </c>
+      <c r="B224" s="11">
+        <v>100.13956928699</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="10">
+        <v>44774</v>
+      </c>
+      <c r="B225" s="11">
+        <v>107.73842537263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="10">
+        <v>44805</v>
+      </c>
+      <c r="B226" s="11">
+        <v>104.69711912763</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="10">
+        <v>44835</v>
+      </c>
+      <c r="B227" s="11">
+        <v>107.03250111825</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="10">
+        <v>44866</v>
+      </c>
+      <c r="B228" s="11">
+        <v>110.89286830966</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="10">
+        <v>44896</v>
+      </c>
+      <c r="B229" s="11">
+        <v>118.22899403494</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="10">
+        <v>44927</v>
+      </c>
+      <c r="B230" s="11">
+        <v>105.0383518336</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="10">
+        <v>44958</v>
+      </c>
+      <c r="B231" s="11">
+        <v>99.673872338406994</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="10">
+        <v>44986</v>
+      </c>
+      <c r="B232" s="11">
+        <v>114.11724330244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="10">
+        <v>45017</v>
+      </c>
+      <c r="B233" s="11">
+        <v>106.90290300782</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="10">
+        <v>45047</v>
+      </c>
+      <c r="B234" s="11">
+        <v>108.00137168713</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="10">
+        <v>45078</v>
+      </c>
+      <c r="B235" s="11">
+        <v>105.05500592769</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="10">
+        <v>45108</v>
+      </c>
+      <c r="B236" s="11">
+        <v>102.35593338675</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="10">
+        <v>45139</v>
+      </c>
+      <c r="B237" s="11">
+        <v>107.04029778</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="10">
+        <v>45170</v>
+      </c>
+      <c r="B238" s="11">
+        <v>104.96045358108999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="10">
+        <v>45200</v>
+      </c>
+      <c r="B239" s="11">
+        <v>108.09627954363</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="10">
+        <v>45231</v>
+      </c>
+      <c r="B240" s="11">
+        <v>112.05388024574999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="10">
+        <v>45261</v>
+      </c>
+      <c r="B241" s="11">
+        <v>117.38565860033</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="10">
+        <v>45292</v>
+      </c>
+      <c r="B242" s="11">
+        <v>107.47358773771001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="10">
+        <v>45323</v>
+      </c>
+      <c r="B243" s="11">
+        <v>104.18548754872999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F60F9AB-7C3A-4C35-ACB3-FA311802567F}">
   <dimension ref="A1:B244"/>
   <sheetViews>
@@ -5132,7 +7124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB32FCEA-217D-4B08-9B11-976750D61FFC}">
   <dimension ref="A1:B237"/>
   <sheetViews>
@@ -7046,7 +9038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526F2D33-C54B-4E16-87E9-2EAAD7B0E03B}">
   <dimension ref="A1:B244"/>
   <sheetViews>
@@ -9017,12 +11009,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF93185-128F-4C3F-94D0-7CF8F4B968C1}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9030,15 +11022,18 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>38047</v>
       </c>
@@ -9046,7 +11041,7 @@
         <v>27473.1265355</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>38139</v>
       </c>
@@ -9054,7 +11049,7 @@
         <v>28001.274011614001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>38231</v>
       </c>
@@ -9062,7 +11057,7 @@
         <v>28734.395400871999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>38322</v>
       </c>
@@ -9070,7 +11065,7 @@
         <v>29200.542341176999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>38412</v>
       </c>
@@ -9078,7 +11073,7 @@
         <v>29233.577951064999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>38504</v>
       </c>
@@ -9086,7 +11081,7 @@
         <v>29719.078089668001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>38596</v>
       </c>
@@ -9094,7 +11089,7 @@
         <v>30441.643547539999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>38687</v>
       </c>
@@ -9102,7 +11097,7 @@
         <v>30807.652960891999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>38777</v>
       </c>
@@ -9110,7 +11105,7 @@
         <v>31086.268480405</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>38869</v>
       </c>
@@ -9118,7 +11113,7 @@
         <v>31731.555103360999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>38961</v>
       </c>
@@ -9126,7 +11121,7 @@
         <v>32163.532935357001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>39052</v>
       </c>
@@ -9134,7 +11129,7 @@
         <v>32850.170083427998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>39142</v>
       </c>
@@ -9142,7 +11137,7 @@
         <v>33187.232968053002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>39234</v>
       </c>
@@ -9150,7 +11145,7 @@
         <v>33524.647894952999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>39326</v>
       </c>
